--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2499.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2499.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.598744525507854</v>
+        <v>0.57915860414505</v>
       </c>
       <c r="B1">
-        <v>3.981639474689254</v>
+        <v>1.059358835220337</v>
       </c>
       <c r="C1">
-        <v>3.319579478018712</v>
+        <v>3.79627537727356</v>
       </c>
       <c r="D1">
-        <v>2.820001241403757</v>
+        <v>3.061160564422607</v>
       </c>
       <c r="E1">
-        <v>3.331252455125856</v>
+        <v>0.8158451318740845</v>
       </c>
     </row>
   </sheetData>
